--- a/bots/crawl_ch/output/toilet_coop_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-11.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:38:40</t>
+          <t>2022-07-11 20:58:10</t>
         </is>
       </c>
     </row>
